--- a/data/metadata/Informe-05-0709-070909-A-TM-TP.xlsx
+++ b/data/metadata/Informe-05-0709-070909-A-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>n-accidentes</t>
   </si>
@@ -52,7 +52,10 @@
     <t>iaest-measure:municipio</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:tamano-centro</t>
+  </si>
+  <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
   </si>
   <si>
     <t>medida</t>
@@ -67,13 +70,7 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-tamano-centro.xlsx</t>
   </si>
 </sst>
 </file>
@@ -179,7 +176,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -188,12 +185,12 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -202,10 +199,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -222,7 +219,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -231,10 +228,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -246,15 +243,12 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-0709-070909-A-TM-TP.xlsx
+++ b/data/metadata/Informe-05-0709-070909-A-TM-TP.xlsx
@@ -11,63 +11,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
-  <si>
-    <t>n-accidentes</t>
-  </si>
-  <si>
-    <t>grupo-grado-codigo</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>municipio</t>
-  </si>
-  <si>
-    <t>tamano-centro</t>
-  </si>
-  <si>
-    <t>direccion-provincial-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>direccion-provincial-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Dirección Provincial Nombre</t>
+  </si>
+  <si>
+    <t>CCAA Código</t>
+  </si>
+  <si>
+    <t>Tamaño Centro</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nº Accidentes</t>
+  </si>
+  <si>
+    <t>Grupo Grado Código</t>
+  </si>
+  <si>
+    <t>Dirección Provincial Código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>iaest-measure:municipio</t>
+  </si>
+  <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:tamano-centro</t>
   </si>
   <si>
     <t>iaest-measure:n-accidentes</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:municipio</t>
-  </si>
-  <si>
-    <t>iaest-measure:tamano-centro</t>
-  </si>
-  <si>
-    <t>iaest-measure:direccion-provincial-nombre</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -167,22 +170,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -193,28 +196,28 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -222,33 +225,33 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="1" t="s">
-        <v>19</v>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
